--- a/test_data/frap/analysis.xlsx
+++ b/test_data/frap/analysis.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E4_bottom.czi</t>
+          <t>E1_top.czi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,13 +478,13 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E2" t="n">
-        <v>2.019784912252841</v>
+        <v>2.120893791054149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E3_top.czi</t>
+          <t>E1_bottom.czi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E3" t="n">
-        <v>2.445992022700515</v>
+        <v>1.832431885572129</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/frap/analysis.xlsx
+++ b/test_data/frap/analysis.xlsx
@@ -478,7 +478,7 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E2" t="n">
-        <v>2.120893791054149</v>
+        <v>5.292640613667151</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E3" t="n">
-        <v>1.832431885572129</v>
+        <v>6.232163521340151</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/frap/analysis.xlsx
+++ b/test_data/frap/analysis.xlsx
@@ -478,7 +478,7 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E2" t="n">
-        <v>5.292640613667151</v>
+        <v>5.29264064445314</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>2.28400251490235</v>
       </c>
       <c r="E3" t="n">
-        <v>6.232163521340151</v>
+        <v>6.232163590931808</v>
       </c>
     </row>
   </sheetData>
